--- a/param-values/param-notes.xlsx
+++ b/param-values/param-notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zobitz/Desktop/Finland Projects/FireGrow/param-values/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD44F64-B319-A34D-BDA2-4AF915BB5B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C309427E-3361-A04E-9B58-06E3D338B6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="24920" windowHeight="15440" xr2:uid="{B7EC0165-F407-A842-BDE0-63FF754B71A5}"/>
+    <workbookView xWindow="1180" yWindow="740" windowWidth="18160" windowHeight="15440" xr2:uid="{B7EC0165-F407-A842-BDE0-63FF754B71A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="172">
   <si>
     <t>N2012</t>
   </si>
@@ -1540,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115D7A40-2F74-C24C-8B5F-F17984BB0B4A}">
   <dimension ref="A20:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2041,26 @@
         <v>2.9499999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <f>AVERAGE(0.146,0.128,0.047,0.27,0.268)</f>
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71">
+        <f>AVERAGE(0.0054,0.0062,0.0174,0.0045,0.0031)</f>
+        <v>7.3199999999999984E-3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -2054,13 +2075,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E74">
         <f>1/108*365</f>
         <v>3.3796296296296293</v>
       </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L75">
         <v>0</v>
       </c>
@@ -2069,7 +2090,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f>0.1702/365</f>
+        <v>4.6630136986301366E-4</v>
+      </c>
       <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2142,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>41</v>
       </c>
@@ -2133,7 +2158,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>43</v>
       </c>
